--- a/Input/SetoresGrupo.xlsx
+++ b/Input/SetoresGrupo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinicius/Documents/IPEA/Python/Analise_Choques_MIP_Nacional/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinicius/Documents/IPEA/Python/MIP_Interregional_Haddad/Input_Vinicius/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCAF773-338A-B24B-9D21-9CB5AA91BC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE50407B-A801-9949-BEA4-C1781A29A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetorGrupo" sheetId="42" r:id="rId1"/>
-    <sheet name="SetorGrupoEduc" sheetId="44" r:id="rId2"/>
-    <sheet name="Grupo18" sheetId="43" r:id="rId3"/>
+    <sheet name="SetorGrupoRegional" sheetId="45" r:id="rId2"/>
+    <sheet name="SetorGrupoEduc" sheetId="44" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="179">
   <si>
     <t>Outros produtos alimentares</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t>Metalurgia de metais não-ferosos e a fundição de metais</t>
-  </si>
-  <si>
     <t>Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
@@ -494,21 +491,12 @@
     <t>Atividades profissionais, científicas e técnicas, administrativas e serviços complementares</t>
   </si>
   <si>
-    <t>Administração, defesa, educação e saúde públicas e seguridade social</t>
-  </si>
-  <si>
     <t>Educação e saúde privadas</t>
   </si>
   <si>
     <t>Artes, cultura, esporte e recreação e outras atividades de serviços</t>
   </si>
   <si>
-    <t>CodSetGrup</t>
-  </si>
-  <si>
-    <t>DescSetGrup</t>
-  </si>
-  <si>
     <t>Educação pública - Educação Básica</t>
   </si>
   <si>
@@ -573,6 +561,15 @@
   </si>
   <si>
     <t>Administração, defesa, saúde e educação públicas e seguridade social</t>
+  </si>
+  <si>
+    <t>GrupoIBGE68</t>
+  </si>
+  <si>
+    <t>GrupoIBGE18</t>
+  </si>
+  <si>
+    <t>Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
 </sst>
 </file>
@@ -653,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -671,7 +668,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1019,7 +1015,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1033,1208 +1029,1208 @@
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>165</v>
+        <v>137</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>165</v>
+        <v>137</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>165</v>
+        <v>137</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="F8"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="F9"/>
-      <c r="H9" s="10"/>
-      <c r="J9" s="12"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="F10"/>
-      <c r="H10" s="10"/>
-      <c r="J10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="F11"/>
-      <c r="H11" s="10"/>
-      <c r="J11" s="12"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="F12"/>
-      <c r="H12" s="10"/>
-      <c r="J12" s="12"/>
+      <c r="H12" s="9"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="F13"/>
-      <c r="H13" s="10"/>
-      <c r="J13" s="12"/>
+      <c r="H13" s="9"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="J14" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="J15" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="J16" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="J17" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="J18" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="J19" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="J20" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="J21" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="J22" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="J23" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="J24" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="J25" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="J26" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J27" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>166</v>
+        <v>140</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>167</v>
+        <v>140</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>168</v>
+        <v>140</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>168</v>
+        <v>140</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>149</v>
+        <v>140</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>149</v>
+        <v>140</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>58</v>
+        <v>140</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>169</v>
+        <v>140</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>169</v>
+        <v>140</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>169</v>
+        <v>140</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E59" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>170</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E60" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>170</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>170</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>65</v>
+        <v>140</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>172</v>
+        <v>140</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>172</v>
+        <v>140</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>173</v>
+        <v>140</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>174</v>
+        <v>140</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -2245,12 +2241,12 @@
         <v>2</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E69" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2261,11 +2257,584 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4087307C-9B7B-C843-B2B1-390DCBE4F481}">
+  <dimension ref="A1:B69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472CCA4C-6BA7-B145-AFE5-EED6AA6FF928}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2279,1161 +2848,1161 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>165</v>
+        <v>137</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>165</v>
+        <v>137</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>165</v>
+        <v>137</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>166</v>
+        <v>140</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>167</v>
+        <v>140</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>168</v>
+        <v>140</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>168</v>
+        <v>140</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>149</v>
+        <v>140</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>149</v>
+        <v>140</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>151</v>
+        <v>140</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>58</v>
+        <v>140</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>169</v>
+        <v>140</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>169</v>
+        <v>140</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>169</v>
+        <v>140</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E59" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>170</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E60" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>170</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>170</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>65</v>
+        <v>140</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -3441,16 +4010,16 @@
         <v>8594</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -3458,16 +4027,16 @@
         <v>8595</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -3475,84 +4044,84 @@
         <v>8596</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>172</v>
+        <v>140</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>172</v>
+        <v>140</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>173</v>
+        <v>140</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>174</v>
+        <v>140</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -3563,12 +4132,12 @@
         <v>2</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E73" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3577,208 +4146,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" s="9" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Input/SetoresGrupo.xlsx
+++ b/Input/SetoresGrupo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinicius/Documents/IPEA/Python/MIP_Interregional_Haddad/Input_Vinicius/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE50407B-A801-9949-BEA4-C1781A29A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B092ED-E6C5-1444-BC65-0691E540A0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14560" windowHeight="18000" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetorGrupo" sheetId="42" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="180">
   <si>
     <t>Outros produtos alimentares</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>Metalurgia de metais não-ferrosos e a fundição de metais</t>
+  </si>
+  <si>
+    <t>Administração, defesa, educação e saúde públicas e seguridade social</t>
   </si>
 </sst>
 </file>
@@ -2260,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4087307C-9B7B-C843-B2B1-390DCBE4F481}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2765,7 +2768,7 @@
         <v>64</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -2773,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -2789,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
